--- a/LB2/N1/3/P1_3_Netzwerk-Einteilung.xlsx
+++ b/LB2/N1/3/P1_3_Netzwerk-Einteilung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\TBZ\Module\M129\LB2\N1\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02963672-B1BE-4287-9AB1-A835D0CC9114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692194A7-788D-4B18-A19C-1BCC0FCA8A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{8EB2D80C-05A7-4466-89C9-78363DE4D820}"/>
+    <workbookView xWindow="29610" yWindow="-12885" windowWidth="15510" windowHeight="29040" xr2:uid="{8EB2D80C-05A7-4466-89C9-78363DE4D820}"/>
   </bookViews>
   <sheets>
     <sheet name="LB2_1-3" sheetId="13" r:id="rId1"/>
@@ -346,14 +346,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E62B9C2-28ED-495C-ACB6-6AE69FBCA5D3}">
   <dimension ref="A1:AP55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A29" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="AQ49" sqref="AQ49"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,47 +693,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
       <c r="AN1" s="6"/>
       <c r="AO1" s="3" t="s">
         <v>0</v>
@@ -749,49 +749,49 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="23">
+      <c r="E2" s="21">
         <v>25</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="23">
+      <c r="N2" s="21">
         <v>30</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="23">
+      <c r="W2" s="21">
         <v>120</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
       <c r="AE2" s="5"/>
-      <c r="AF2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
+      <c r="AF2" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
       <c r="AN2" s="6"/>
       <c r="AO2" s="4">
         <v>4</v>
@@ -895,41 +895,105 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1</v>
+      </c>
       <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>1</v>
+      </c>
+      <c r="R5" s="15">
+        <v>1</v>
+      </c>
+      <c r="S5" s="15">
+        <v>1</v>
+      </c>
+      <c r="T5" s="15">
+        <v>1</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0</v>
+      </c>
       <c r="V5" s="14"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
+      <c r="W5" s="15">
+        <v>0</v>
+      </c>
+      <c r="X5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>0</v>
+      </c>
       <c r="AE5" s="5"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
+      <c r="AF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="15">
+        <v>0</v>
+      </c>
       <c r="AN5" s="6"/>
       <c r="AO5" s="5"/>
       <c r="AP5" s="6"/>
@@ -941,41 +1005,105 @@
       <c r="B6" s="10"/>
       <c r="C6" s="8"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18">
+        <v>1</v>
+      </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="N6" s="18">
+        <v>1</v>
+      </c>
+      <c r="O6" s="18">
+        <v>1</v>
+      </c>
+      <c r="P6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>1</v>
+      </c>
+      <c r="R6" s="18">
+        <v>1</v>
+      </c>
+      <c r="S6" s="18">
+        <v>1</v>
+      </c>
+      <c r="T6" s="18">
+        <v>1</v>
+      </c>
+      <c r="U6" s="18">
+        <v>1</v>
+      </c>
       <c r="V6" s="5"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="19"/>
+      <c r="W6" s="18">
+        <v>1</v>
+      </c>
+      <c r="X6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="19">
+        <v>1</v>
+      </c>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
+      <c r="AF6" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="19">
+        <v>0</v>
+      </c>
       <c r="AN6" s="6"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="6"/>
@@ -987,41 +1115,105 @@
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18">
+        <v>1</v>
+      </c>
       <c r="M7" s="5"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
+      <c r="N7" s="18">
+        <v>1</v>
+      </c>
+      <c r="O7" s="18">
+        <v>1</v>
+      </c>
+      <c r="P7" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>1</v>
+      </c>
+      <c r="R7" s="18">
+        <v>1</v>
+      </c>
+      <c r="S7" s="18">
+        <v>1</v>
+      </c>
+      <c r="T7" s="18">
+        <v>1</v>
+      </c>
+      <c r="U7" s="18">
+        <v>1</v>
+      </c>
       <c r="V7" s="5"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="19"/>
+      <c r="W7" s="18">
+        <v>1</v>
+      </c>
+      <c r="X7" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="19">
+        <v>1</v>
+      </c>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
+      <c r="AF7" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="19">
+        <v>0</v>
+      </c>
       <c r="AN7" s="6"/>
       <c r="AO7" s="5"/>
       <c r="AP7" s="6"/>
@@ -1077,41 +1269,105 @@
       <c r="B9" s="8"/>
       <c r="C9" s="16"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1</v>
+      </c>
       <c r="M9" s="14"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>1</v>
+      </c>
+      <c r="R9" s="15">
+        <v>1</v>
+      </c>
+      <c r="S9" s="15">
+        <v>1</v>
+      </c>
+      <c r="T9" s="15">
+        <v>1</v>
+      </c>
+      <c r="U9" s="15">
+        <v>0</v>
+      </c>
       <c r="V9" s="14"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="19"/>
+      <c r="W9" s="15">
+        <v>0</v>
+      </c>
+      <c r="X9" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="15">
+        <v>0</v>
+      </c>
       <c r="AE9" s="14"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
+      <c r="AF9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="19">
+        <v>0</v>
+      </c>
       <c r="AN9" s="6"/>
       <c r="AO9" s="5"/>
       <c r="AP9" s="6"/>
@@ -1123,41 +1379,105 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1</v>
+      </c>
       <c r="M10" s="14"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
+      <c r="N10" s="15">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>1</v>
+      </c>
+      <c r="R10" s="15">
+        <v>1</v>
+      </c>
+      <c r="S10" s="15">
+        <v>1</v>
+      </c>
+      <c r="T10" s="15">
+        <v>1</v>
+      </c>
+      <c r="U10" s="15">
+        <v>0</v>
+      </c>
       <c r="V10" s="14"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="19"/>
+      <c r="W10" s="15">
+        <v>0</v>
+      </c>
+      <c r="X10" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="15">
+        <v>0</v>
+      </c>
       <c r="AE10" s="14"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
+      <c r="AF10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="19">
+        <v>0</v>
+      </c>
       <c r="AN10" s="6"/>
       <c r="AO10" s="5"/>
       <c r="AP10" s="6"/>
@@ -1169,41 +1489,105 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>1</v>
+      </c>
       <c r="M11" s="14"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>1</v>
+      </c>
+      <c r="R11" s="15">
+        <v>1</v>
+      </c>
+      <c r="S11" s="15">
+        <v>1</v>
+      </c>
+      <c r="T11" s="15">
+        <v>1</v>
+      </c>
+      <c r="U11" s="15">
+        <v>0</v>
+      </c>
       <c r="V11" s="14"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="19"/>
+      <c r="W11" s="15">
+        <v>0</v>
+      </c>
+      <c r="X11" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="15">
+        <v>0</v>
+      </c>
       <c r="AE11" s="14"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
+      <c r="AF11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="20">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="19">
+        <v>0</v>
+      </c>
       <c r="AN11" s="6"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="6"/>
@@ -1215,41 +1599,105 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>1</v>
+      </c>
       <c r="M12" s="14"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
+      <c r="N12" s="15">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0</v>
+      </c>
+      <c r="P12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>1</v>
+      </c>
+      <c r="R12" s="15">
+        <v>1</v>
+      </c>
+      <c r="S12" s="15">
+        <v>1</v>
+      </c>
+      <c r="T12" s="15">
+        <v>1</v>
+      </c>
+      <c r="U12" s="15">
+        <v>0</v>
+      </c>
       <c r="V12" s="14"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="19"/>
+      <c r="W12" s="15">
+        <v>0</v>
+      </c>
+      <c r="X12" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>0</v>
+      </c>
       <c r="AE12" s="14"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
+      <c r="AF12" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="20">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="19">
+        <v>1</v>
+      </c>
       <c r="AN12" s="6"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="6"/>
@@ -1302,47 +1750,47 @@
       <c r="AO14" s="1"/>
     </row>
     <row r="15" spans="1:42" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="23"/>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="23"/>
       <c r="AN15" s="6"/>
       <c r="AO15" s="3" t="s">
         <v>0</v>
@@ -1358,49 +1806,49 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>25</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="23">
+      <c r="N16" s="21">
         <v>30</v>
       </c>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="23">
+      <c r="W16" s="21">
         <v>120</v>
       </c>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="23">
+      <c r="AF16" s="21">
         <v>16</v>
       </c>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
       <c r="AN16" s="6"/>
       <c r="AO16" s="4">
         <v>4</v>
@@ -1504,41 +1952,105 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1</v>
+      </c>
+      <c r="I19" s="15">
+        <v>1</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1</v>
+      </c>
       <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>1</v>
+      </c>
+      <c r="R19" s="15">
+        <v>1</v>
+      </c>
+      <c r="S19" s="15">
+        <v>1</v>
+      </c>
+      <c r="T19" s="15">
+        <v>1</v>
+      </c>
+      <c r="U19" s="15">
+        <v>0</v>
+      </c>
       <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
+      <c r="W19" s="15">
+        <v>0</v>
+      </c>
+      <c r="X19" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>0</v>
+      </c>
       <c r="AE19" s="5"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
+      <c r="AF19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="15">
+        <v>0</v>
+      </c>
       <c r="AN19" s="6"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="6"/>
@@ -1550,41 +2062,105 @@
       <c r="B20" s="10"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
+      <c r="J20" s="18">
+        <v>1</v>
+      </c>
+      <c r="K20" s="18">
+        <v>1</v>
+      </c>
+      <c r="L20" s="18">
+        <v>1</v>
+      </c>
       <c r="M20" s="5"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
+      <c r="N20" s="18">
+        <v>1</v>
+      </c>
+      <c r="O20" s="18">
+        <v>1</v>
+      </c>
+      <c r="P20" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>1</v>
+      </c>
+      <c r="R20" s="18">
+        <v>1</v>
+      </c>
+      <c r="S20" s="18">
+        <v>1</v>
+      </c>
+      <c r="T20" s="18">
+        <v>1</v>
+      </c>
+      <c r="U20" s="18">
+        <v>1</v>
+      </c>
       <c r="V20" s="5"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="19"/>
+      <c r="W20" s="18">
+        <v>1</v>
+      </c>
+      <c r="X20" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="19">
+        <v>1</v>
+      </c>
       <c r="AE20" s="5"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
+      <c r="AF20" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="19">
+        <v>0</v>
+      </c>
       <c r="AN20" s="6"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="6"/>
@@ -1596,41 +2172,105 @@
       <c r="B21" s="10"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
+      <c r="E21" s="18">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1</v>
+      </c>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
+      <c r="L21" s="18">
+        <v>1</v>
+      </c>
       <c r="M21" s="5"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
+      <c r="N21" s="18">
+        <v>1</v>
+      </c>
+      <c r="O21" s="18">
+        <v>1</v>
+      </c>
+      <c r="P21" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>1</v>
+      </c>
+      <c r="R21" s="18">
+        <v>1</v>
+      </c>
+      <c r="S21" s="18">
+        <v>1</v>
+      </c>
+      <c r="T21" s="18">
+        <v>1</v>
+      </c>
+      <c r="U21" s="18">
+        <v>1</v>
+      </c>
       <c r="V21" s="5"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="19"/>
+      <c r="W21" s="18">
+        <v>1</v>
+      </c>
+      <c r="X21" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="19">
+        <v>1</v>
+      </c>
       <c r="AE21" s="5"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
+      <c r="AF21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="19">
+        <v>0</v>
+      </c>
       <c r="AN21" s="6"/>
       <c r="AO21" s="5"/>
       <c r="AP21" s="6"/>
@@ -1686,41 +2326,105 @@
       <c r="B23" s="8"/>
       <c r="C23" s="16"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15">
+        <v>1</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>1</v>
+      </c>
       <c r="M23" s="14"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
+      <c r="N23" s="15">
+        <v>0</v>
+      </c>
+      <c r="O23" s="15">
+        <v>0</v>
+      </c>
+      <c r="P23" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>1</v>
+      </c>
+      <c r="R23" s="15">
+        <v>1</v>
+      </c>
+      <c r="S23" s="15">
+        <v>1</v>
+      </c>
+      <c r="T23" s="15">
+        <v>1</v>
+      </c>
+      <c r="U23" s="15">
+        <v>0</v>
+      </c>
       <c r="V23" s="14"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="19"/>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="15">
+        <v>0</v>
+      </c>
       <c r="AE23" s="14"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
+      <c r="AF23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="19">
+        <v>0</v>
+      </c>
       <c r="AN23" s="6"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="6"/>
@@ -1732,41 +2436,105 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
+        <v>1</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>1</v>
+      </c>
       <c r="M24" s="14"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
+      <c r="N24" s="15">
+        <v>0</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>1</v>
+      </c>
+      <c r="R24" s="15">
+        <v>1</v>
+      </c>
+      <c r="S24" s="15">
+        <v>1</v>
+      </c>
+      <c r="T24" s="15">
+        <v>1</v>
+      </c>
+      <c r="U24" s="15">
+        <v>0</v>
+      </c>
       <c r="V24" s="14"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="19"/>
+      <c r="W24" s="15">
+        <v>0</v>
+      </c>
+      <c r="X24" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="15">
+        <v>0</v>
+      </c>
       <c r="AE24" s="14"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
+      <c r="AF24" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="19">
+        <v>0</v>
+      </c>
       <c r="AN24" s="6"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="6"/>
@@ -1778,41 +2546,105 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>1</v>
+      </c>
+      <c r="I25" s="15">
+        <v>1</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <v>1</v>
+      </c>
       <c r="M25" s="14"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
+      <c r="N25" s="15">
+        <v>0</v>
+      </c>
+      <c r="O25" s="15">
+        <v>0</v>
+      </c>
+      <c r="P25" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>1</v>
+      </c>
+      <c r="R25" s="15">
+        <v>1</v>
+      </c>
+      <c r="S25" s="15">
+        <v>1</v>
+      </c>
+      <c r="T25" s="15">
+        <v>1</v>
+      </c>
+      <c r="U25" s="15">
+        <v>0</v>
+      </c>
       <c r="V25" s="14"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="19"/>
+      <c r="W25" s="15">
+        <v>0</v>
+      </c>
+      <c r="X25" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="15">
+        <v>0</v>
+      </c>
       <c r="AE25" s="14"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
+      <c r="AF25" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="20">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="19">
+        <v>0</v>
+      </c>
       <c r="AN25" s="6"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="6"/>
@@ -1824,41 +2656,105 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>1</v>
+      </c>
       <c r="M26" s="14"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0</v>
+      </c>
+      <c r="P26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>1</v>
+      </c>
+      <c r="R26" s="15">
+        <v>1</v>
+      </c>
+      <c r="S26" s="15">
+        <v>1</v>
+      </c>
+      <c r="T26" s="15">
+        <v>1</v>
+      </c>
+      <c r="U26" s="15">
+        <v>0</v>
+      </c>
       <c r="V26" s="14"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="19"/>
+      <c r="W26" s="15">
+        <v>0</v>
+      </c>
+      <c r="X26" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="15">
+        <v>0</v>
+      </c>
       <c r="AE26" s="14"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="19"/>
+      <c r="AF26" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="20">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="19">
+        <v>1</v>
+      </c>
       <c r="AN26" s="6"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="6"/>
@@ -1908,47 +2804,47 @@
       <c r="AP27" s="6"/>
     </row>
     <row r="29" spans="1:42" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="22"/>
-      <c r="AI29" s="22"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="22"/>
-      <c r="AL29" s="22"/>
-      <c r="AM29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="23"/>
       <c r="AN29" s="6"/>
       <c r="AO29" s="3" t="s">
         <v>0</v>
@@ -1964,49 +2860,49 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="23">
+      <c r="E30" s="21">
         <v>25</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="23">
+      <c r="N30" s="21">
         <v>30</v>
       </c>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="23">
+      <c r="W30" s="21">
         <v>120</v>
       </c>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="23"/>
-      <c r="AD30" s="23"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21"/>
       <c r="AE30" s="5"/>
-      <c r="AF30" s="23">
+      <c r="AF30" s="21">
         <v>32</v>
       </c>
-      <c r="AG30" s="23"/>
-      <c r="AH30" s="23"/>
-      <c r="AI30" s="23"/>
-      <c r="AJ30" s="23"/>
-      <c r="AK30" s="23"/>
-      <c r="AL30" s="23"/>
-      <c r="AM30" s="23"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="21"/>
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="21"/>
+      <c r="AK30" s="21"/>
+      <c r="AL30" s="21"/>
+      <c r="AM30" s="21"/>
       <c r="AN30" s="6"/>
       <c r="AO30" s="4">
         <v>4</v>
@@ -2185,14 +3081,30 @@
         <v>0</v>
       </c>
       <c r="AE33" s="5"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="15"/>
-      <c r="AH33" s="15"/>
-      <c r="AI33" s="15"/>
-      <c r="AJ33" s="15"/>
-      <c r="AK33" s="15"/>
-      <c r="AL33" s="15"/>
-      <c r="AM33" s="15"/>
+      <c r="AF33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="15">
+        <v>0</v>
+      </c>
       <c r="AN33" s="6"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="6"/>
@@ -2279,14 +3191,30 @@
         <v>1</v>
       </c>
       <c r="AE34" s="5"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19"/>
-      <c r="AM34" s="19"/>
+      <c r="AF34" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="19">
+        <v>0</v>
+      </c>
       <c r="AN34" s="6"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="6"/>
@@ -2373,14 +3301,30 @@
         <v>1</v>
       </c>
       <c r="AE35" s="5"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="19"/>
-      <c r="AI35" s="19"/>
-      <c r="AJ35" s="20"/>
-      <c r="AK35" s="19"/>
-      <c r="AL35" s="19"/>
-      <c r="AM35" s="19"/>
+      <c r="AF35" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="19">
+        <v>0</v>
+      </c>
       <c r="AN35" s="6"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="6"/>
@@ -2511,14 +3455,30 @@
         <v>0</v>
       </c>
       <c r="AE37" s="14"/>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AJ37" s="20"/>
-      <c r="AK37" s="19"/>
-      <c r="AL37" s="19"/>
-      <c r="AM37" s="19"/>
+      <c r="AF37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="19">
+        <v>0</v>
+      </c>
       <c r="AN37" s="6"/>
       <c r="AO37" s="5"/>
       <c r="AP37" s="6"/>
@@ -2605,14 +3565,30 @@
         <v>0</v>
       </c>
       <c r="AE38" s="14"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="20"/>
-      <c r="AK38" s="19"/>
-      <c r="AL38" s="19"/>
-      <c r="AM38" s="19"/>
+      <c r="AF38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="19">
+        <v>0</v>
+      </c>
       <c r="AN38" s="6"/>
       <c r="AO38" s="5"/>
       <c r="AP38" s="6"/>
@@ -2699,14 +3675,30 @@
         <v>0</v>
       </c>
       <c r="AE39" s="14"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="20"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
+      <c r="AF39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="20">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="19">
+        <v>0</v>
+      </c>
       <c r="AN39" s="6"/>
       <c r="AO39" s="5"/>
       <c r="AP39" s="6"/>
@@ -2793,14 +3785,30 @@
         <v>0</v>
       </c>
       <c r="AE40" s="14"/>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="19"/>
-      <c r="AH40" s="19"/>
-      <c r="AI40" s="19"/>
-      <c r="AJ40" s="20"/>
-      <c r="AK40" s="19"/>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="19"/>
+      <c r="AF40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="20">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="19">
+        <v>1</v>
+      </c>
       <c r="AN40" s="6"/>
       <c r="AO40" s="5"/>
       <c r="AP40" s="6"/>
@@ -2853,47 +3861,47 @@
       <c r="AO42" s="1"/>
     </row>
     <row r="43" spans="1:42" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="22"/>
-      <c r="AD43" s="22"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="22"/>
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="22"/>
-      <c r="AI43" s="22"/>
-      <c r="AJ43" s="22"/>
-      <c r="AK43" s="22"/>
-      <c r="AL43" s="22"/>
-      <c r="AM43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="23"/>
+      <c r="AG43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23"/>
+      <c r="AJ43" s="23"/>
+      <c r="AK43" s="23"/>
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
       <c r="AN43" s="6"/>
       <c r="AO43" s="3" t="s">
         <v>0</v>
@@ -2909,49 +3917,49 @@
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="23">
+      <c r="E44" s="21">
         <v>25</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="23">
+      <c r="N44" s="21">
         <v>30</v>
       </c>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="23">
+      <c r="W44" s="21">
         <v>120</v>
       </c>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="23"/>
-      <c r="AA44" s="23"/>
-      <c r="AB44" s="23"/>
-      <c r="AC44" s="23"/>
-      <c r="AD44" s="23"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
       <c r="AE44" s="5"/>
-      <c r="AF44" s="23">
+      <c r="AF44" s="21">
         <v>48</v>
       </c>
-      <c r="AG44" s="23"/>
-      <c r="AH44" s="23"/>
-      <c r="AI44" s="23"/>
-      <c r="AJ44" s="23"/>
-      <c r="AK44" s="23"/>
-      <c r="AL44" s="23"/>
-      <c r="AM44" s="23"/>
+      <c r="AG44" s="21"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="21"/>
+      <c r="AJ44" s="21"/>
+      <c r="AK44" s="21"/>
+      <c r="AL44" s="21"/>
+      <c r="AM44" s="21"/>
       <c r="AN44" s="6"/>
       <c r="AO44" s="4">
         <v>4</v>
@@ -3908,6 +4916,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A43:AM43"/>
+    <mergeCell ref="E44:L44"/>
+    <mergeCell ref="N44:U44"/>
+    <mergeCell ref="W44:AD44"/>
+    <mergeCell ref="AF44:AM44"/>
     <mergeCell ref="E30:L30"/>
     <mergeCell ref="N30:U30"/>
     <mergeCell ref="W30:AD30"/>
@@ -3923,11 +4936,6 @@
     <mergeCell ref="W16:AD16"/>
     <mergeCell ref="AF16:AM16"/>
     <mergeCell ref="A29:AM29"/>
-    <mergeCell ref="A43:AM43"/>
-    <mergeCell ref="E44:L44"/>
-    <mergeCell ref="N44:U44"/>
-    <mergeCell ref="W44:AD44"/>
-    <mergeCell ref="AF44:AM44"/>
   </mergeCells>
   <pageMargins left="0.17210144927536231" right="0.19685039370078741" top="1" bottom="0.92708333333333337" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
